--- a/exercises/excercises/ex050.MF_pipe_new.xlsx
+++ b/exercises/excercises/ex050.MF_pipe_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB83FFF-BD3D-4D4D-B836-8F987D9E53ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDEBC48-89A0-485B-9383-0F62AE401496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37140" windowHeight="19980" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -833,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,6 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1220,10 +1221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A7C6B1-D08D-4B8C-90EB-0A5185B9FB63}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1530,7 +1531,7 @@
       <c r="D32" s="15"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="2:19" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B33" s="16" t="s">
         <v>41</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:19" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B34" s="16" t="s">
         <v>42</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:19" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B35" s="16" t="s">
         <v>44</v>
       </c>
@@ -1578,7 +1579,7 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="2:19" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B36" s="16" t="s">
         <v>45</v>
       </c>
@@ -1590,7 +1591,7 @@
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="2:19" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B37" s="16" t="s">
         <v>46</v>
       </c>
@@ -1602,17 +1603,87 @@
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G38" s="10"/>
       <c r="P38">
-        <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,B43:C44,Pcalc_,P33,P34,PVTstr_)</f>
-        <v>175.43057003672564</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
+        <f t="array" ref="P38:Q38">[1]!MF_p_pipe_new_atma(qliq_,fw_,B43:C44,Pcalc_,,P33,P34,PVTstr_,,,E43:F45,1)</f>
+        <v>173.89122927382525</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="array" ref="V38:AF68">[1]!MF_p_pipe_new_atma(qliq_,fw_,B43:C44,Pcalc_,,P33,P34,PVTstr_,,,E43:F45,1)</f>
+        <v>173.89122927382525</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF38" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32" x14ac:dyDescent="0.35">
       <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>47</v>
       </c>
@@ -1640,8 +1711,41 @@
       <c r="S40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:19" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40" t="str">
+        <v>h,m</v>
+      </c>
+      <c r="X40" t="str">
+        <v>p,atma</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF40" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B41" s="18" t="s">
         <v>51</v>
       </c>
@@ -1679,8 +1783,41 @@
       <c r="S41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41" s="21">
+        <v>0</v>
+      </c>
+      <c r="X41" s="21">
+        <v>90</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF41" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B42" s="18" t="s">
         <v>28</v>
       </c>
@@ -1707,23 +1844,56 @@
         <v>31</v>
       </c>
       <c r="P42">
-        <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,P40,P41,PVTstr_)</f>
-        <v>20.520394332103152</v>
+        <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,P40,P41,PVTstr_)</f>
+        <v>26.151340003359742</v>
       </c>
       <c r="Q42">
-        <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,Q40,Q41,PVTstr_)</f>
-        <v>25.233244190376183</v>
+        <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,Q40,Q41,PVTstr_)</f>
+        <v>31.492794777013103</v>
       </c>
       <c r="R42">
-        <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,R40,R41,PVTstr_)</f>
-        <v>175.43057003672564</v>
+        <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,R40,R41,PVTstr_)</f>
+        <v>172.73477873072741</v>
       </c>
       <c r="S42">
-        <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,S40,S41,PVTstr_)</f>
-        <v>175.21742268495916</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
+        <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,S40,S41,PVTstr_)</f>
+        <v>172.52763899777364</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42" s="21">
+        <v>52.631578947368418</v>
+      </c>
+      <c r="X42" s="21">
+        <v>94.397313308580337</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF42" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B43" s="17">
         <v>0</v>
       </c>
@@ -1749,8 +1919,41 @@
       <c r="K43" s="20">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43" s="21">
+        <v>105.26315789473684</v>
+      </c>
+      <c r="X43" s="21">
+        <v>98.795690369059372</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF43" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B44" s="17">
         <v>1000</v>
       </c>
@@ -1776,8 +1979,41 @@
       <c r="K44" s="20">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44" s="21">
+        <v>157.89473684210526</v>
+      </c>
+      <c r="X44" s="21">
+        <v>103.20364119662682</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B45" s="17">
         <v>1100</v>
       </c>
@@ -1803,8 +2039,41 @@
       <c r="K45" s="20">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45" s="21">
+        <v>210.52631578947367</v>
+      </c>
+      <c r="X45" s="21">
+        <v>107.61223871088814</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF45" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B46" s="17">
         <v>1200</v>
       </c>
@@ -1818,8 +2087,41 @@
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46" s="21">
+        <v>263.15789473684208</v>
+      </c>
+      <c r="X46" s="21">
+        <v>112.023422971925</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF46" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B47" s="17">
         <v>1300</v>
       </c>
@@ -1833,8 +2135,41 @@
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47" s="21">
+        <v>315.78947368421052</v>
+      </c>
+      <c r="X47" s="21">
+        <v>116.43542755192603</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF47" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B48" s="17">
         <v>1400</v>
       </c>
@@ -1848,8 +2183,41 @@
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48" s="21">
+        <v>368.4210526315789</v>
+      </c>
+      <c r="X48" s="21">
+        <v>120.8493462095101</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF48" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B49" s="17">
         <v>1500</v>
       </c>
@@ -1863,8 +2231,41 @@
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49" s="21">
+        <v>421.05263157894734</v>
+      </c>
+      <c r="X49" s="21">
+        <v>125.26419853456824</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B50" s="17">
         <v>1600</v>
       </c>
@@ -1878,8 +2279,41 @@
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50" s="21">
+        <v>473.68421052631578</v>
+      </c>
+      <c r="X50" s="21">
+        <v>129.68045136083745</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF50" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B51" s="17">
         <v>1700</v>
       </c>
@@ -1893,8 +2327,41 @@
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51" s="21">
+        <v>526.31578947368416</v>
+      </c>
+      <c r="X51" s="21">
+        <v>134.09770852921889</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF51" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B52" s="17">
         <v>1800</v>
       </c>
@@ -1908,8 +2375,41 @@
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52" s="21">
+        <v>578.9473684210526</v>
+      </c>
+      <c r="X52" s="21">
+        <v>138.51597003971253</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF52" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B53" s="17">
         <v>1900</v>
       </c>
@@ -1923,8 +2423,41 @@
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53" s="21">
+        <v>631.57894736842104</v>
+      </c>
+      <c r="X53" s="21">
+        <v>142.93527601530565</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF53" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B54" s="17">
         <v>2000</v>
       </c>
@@ -1938,8 +2471,41 @@
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54" s="21">
+        <v>684.21052631578948</v>
+      </c>
+      <c r="X54" s="21">
+        <v>147.35527830096504</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF54" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B55" s="17">
         <v>2100</v>
       </c>
@@ -1953,8 +2519,41 @@
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55" s="21">
+        <v>736.8421052631578</v>
+      </c>
+      <c r="X55" s="21">
+        <v>151.7763431371865</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE55" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF55" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B56" s="17">
         <v>2200</v>
       </c>
@@ -1968,8 +2567,41 @@
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56" s="21">
+        <v>789.47368421052624</v>
+      </c>
+      <c r="X56" s="21">
+        <v>156.19786335222025</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B57" s="17">
         <v>2300</v>
       </c>
@@ -1983,8 +2615,41 @@
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57" s="21">
+        <v>842.10526315789468</v>
+      </c>
+      <c r="X57" s="21">
+        <v>160.62044825094014</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B58" s="17">
         <v>2400</v>
       </c>
@@ -1998,8 +2663,41 @@
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58" s="21">
+        <v>894.73684210526312</v>
+      </c>
+      <c r="X58" s="21">
+        <v>165.04329932058155</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE58" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF58" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B59" s="17">
         <v>2500</v>
       </c>
@@ -2013,8 +2711,41 @@
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59" s="21">
+        <v>947.36842105263156</v>
+      </c>
+      <c r="X59" s="21">
+        <v>169.4672056705202</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B60" s="17">
         <v>2600</v>
       </c>
@@ -2028,8 +2759,41 @@
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60" s="21">
+        <v>1000</v>
+      </c>
+      <c r="X60" s="21">
+        <v>173.89122927382525</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE60" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B61" s="17">
         <v>2700</v>
       </c>
@@ -2043,8 +2807,41 @@
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B62" s="17">
         <v>2800</v>
       </c>
@@ -2058,8 +2855,41 @@
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF62" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B63" s="17">
         <v>3500</v>
       </c>
@@ -2067,16 +2897,220 @@
         <v>2500</v>
       </c>
       <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="V63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE63" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF63" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="G64" s="10"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="V64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE64" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF64" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="G65" s="10"/>
+      <c r="V65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE65" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF65" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="V66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF66" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="V67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE67" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF67" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.35">
+      <c r="V68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="X68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Y68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Z68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AA68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF68" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exercises/excercises/ex050.MF_pipe_new.xlsx
+++ b/exercises/excercises/ex050.MF_pipe_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDEBC48-89A0-485B-9383-0F62AE401496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1193CAA-869F-4B48-8003-B898D784072C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37140" windowHeight="19980" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="gamma_gas_" localSheetId="0">Лист1!$C$9</definedName>
     <definedName name="gamma_oil_" localSheetId="0">Лист1!$C$7</definedName>
     <definedName name="gamma_wat_" localSheetId="0">Лист1!$C$8</definedName>
+    <definedName name="hcor">Лист1!$P$31</definedName>
     <definedName name="muob_" localSheetId="0">Лист1!$C$15</definedName>
     <definedName name="Pb_" localSheetId="0">Лист1!$C$12</definedName>
     <definedName name="Pcalc_">Лист1!$C$23</definedName>
@@ -31,6 +32,7 @@
     <definedName name="qliq_">Лист1!$C$17</definedName>
     <definedName name="Rp_" localSheetId="0">Лист1!$C$11</definedName>
     <definedName name="Rsb_" localSheetId="0">Лист1!$C$10</definedName>
+    <definedName name="tempm">Лист1!$P$30</definedName>
     <definedName name="Tres_" localSheetId="0">Лист1!$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -112,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Упражнения по работе с макросами Unifloc VBA</t>
   </si>
@@ -671,6 +673,12 @@
   <si>
     <t>flow_along_coord</t>
   </si>
+  <si>
+    <t>hcor</t>
+  </si>
+  <si>
+    <t>temp model</t>
+  </si>
 </sst>
 </file>
 
@@ -901,6 +909,2990 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$Y$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p,atma</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$Y$41:$Y$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>17.470479080452858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.652431927016032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.972943977065555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.433424866048782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.051384514190794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.877605897499265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.849479945575233</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.967456183675345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.264650990807866</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.757208209462341</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.395470042468439</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.178759190884584</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.153346957173213</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.886518976992328</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.973453846688841</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.25379448799147</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.502555415351864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.699540366721266</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>84.862107167518673</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$W$41:$W$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.684210526315795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.36842105263159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.0526315789474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.73684210526318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368.42105263157896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442.1052631578948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>515.78947368421052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>589.47368421052636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>663.1578947368422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>736.84210526315792</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>810.52631578947376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>884.21052631578959</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>957.89473684210532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1031.578947368421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1105.2631578947369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1178.9473684210527</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1252.6315789473686</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1326.3157894736844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3EA0-46E9-A060-DFBDAC028D5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="13642095"/>
+        <c:axId val="2050658607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="13642095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050658607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2050658607"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13642095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13659085184011441"/>
+          <c:y val="0.10645021787641701"/>
+          <c:w val="0.79917798200921475"/>
+          <c:h val="0.86442035781859183"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$Z$41:$Z$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.94736842105263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.684210526315791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.421052631578949</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.157894736842106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.894736842105264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.631578947368421</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.368421052631579</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.105263157894736</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.842105263157897</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29.578947368421055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.303157894736842</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.01</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.399473684210527</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.079473684210534</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$W$41:$W$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.684210526315795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.36842105263159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.0526315789474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.73684210526318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368.42105263157896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442.1052631578948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>515.78947368421052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>589.47368421052636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>663.1578947368422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>736.84210526315792</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>810.52631578947376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>884.21052631578959</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>957.89473684210532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1031.578947368421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1105.2631578947369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1178.9473684210527</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1252.6315789473686</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1326.3157894736844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1166-4508-AEB7-624473C67BA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="13642095"/>
+        <c:axId val="2050658607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="13642095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050658607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2050658607"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13642095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13659085184011441"/>
+          <c:y val="0.10645021787641701"/>
+          <c:w val="0.79917798200921475"/>
+          <c:h val="0.86442035781859183"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$AA$41:$AA$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.31699488013866833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34198697794936717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.367442328007691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39334523076872968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41972360938707642</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44665556111797178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47392365618931126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50150189833909964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52941005426155718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55758946892312722</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58591701340704472</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61436046371992692</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64288182881162492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79646608695521881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90785712985273526</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9175324624126453</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92745902836705951</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9361113833320186</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94293025637843442</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94736629388388027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$W$41:$W$60</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.684210526315795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.36842105263159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.0526315789474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.73684210526318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368.42105263157896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>442.1052631578948</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>515.78947368421052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>589.47368421052636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>663.1578947368422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>736.84210526315792</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>810.52631578947376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>884.21052631578959</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>957.89473684210532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1031.578947368421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1105.2631578947369</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1178.9473684210527</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1252.6315789473686</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1326.3157894736844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF35-4D7E-9495-C460A20252A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="13642095"/>
+        <c:axId val="2050658607"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="13642095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050658607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2050658607"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13642095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{076BE7FC-2772-4B92-A692-DABB407B5240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BAD61F-89B9-43F6-8541-5C0C22EC079B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5D5AFD-A925-4C26-A4B1-D86DB35052D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1223,13 +4215,13 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,17 +4233,17 @@
         <v>7.11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +4259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +4275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +4291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1317,12 +4309,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1335,7 +4327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
@@ -1353,7 +4345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1371,7 +4363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1382,7 +4374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
@@ -1393,40 +4385,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
@@ -1443,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>30</v>
       </c>
@@ -1454,7 +4446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
@@ -1465,7 +4457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
@@ -1476,7 +4468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>35</v>
       </c>
@@ -1487,18 +4479,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>38</v>
       </c>
@@ -1509,13 +4501,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="13" t="str">
         <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
+        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:300.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -1523,7 +4515,23 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>40</v>
       </c>
@@ -1531,7 +4539,7 @@
       <c r="D32" s="15"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B33" s="16" t="s">
         <v>41</v>
       </c>
@@ -1543,13 +4551,13 @@
       </c>
       <c r="G33" s="10"/>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="16" t="s">
         <v>42</v>
       </c>
@@ -1567,7 +4575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B35" s="16" t="s">
         <v>44</v>
       </c>
@@ -1579,7 +4587,7 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B36" s="16" t="s">
         <v>45</v>
       </c>
@@ -1591,7 +4599,7 @@
       </c>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B37" s="16" t="s">
         <v>46</v>
       </c>
@@ -1603,21 +4611,21 @@
       </c>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
       <c r="G38" s="10"/>
       <c r="P38">
         <f t="array" ref="P38:Q38">[1]!MF_p_pipe_new_atma(qliq_,fw_,B43:C44,Pcalc_,,P33,P34,PVTstr_,,,E43:F45,1)</f>
-        <v>173.89122927382525</v>
+        <v>32.784233435309851</v>
       </c>
       <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <f t="array" ref="V38:AF68">[1]!MF_p_pipe_new_atma(qliq_,fw_,B43:C44,Pcalc_,,P33,P34,PVTstr_,,,E43:F45,1)</f>
-        <v>173.89122927382525</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="V38" s="21">
+        <f t="array" ref="V38:AF68">[1]!MF_p_pipe_new_atma(qliq_,fw_,B43:C48,Pcalc_,C25,P33,P34,PVTstr_,,hcor,E43:F45,tempm)</f>
+        <v>17.470479080452858</v>
+      </c>
+      <c r="W38" s="21">
+        <v>20</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -1631,8 +4639,8 @@
       <c r="AA38">
         <v>0</v>
       </c>
-      <c r="AB38" t="e">
-        <v>#N/A</v>
+      <c r="AB38">
+        <v>0</v>
       </c>
       <c r="AC38" t="e">
         <v>#N/A</v>
@@ -1647,13 +4655,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
       <c r="G39" s="10"/>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
+      <c r="V39" t="str">
+        <v>p_result_atma</v>
+      </c>
+      <c r="W39" t="str">
+        <v>t_result_C</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -1667,8 +4675,8 @@
       <c r="AA39">
         <v>0</v>
       </c>
-      <c r="AB39" t="e">
-        <v>#N/A</v>
+      <c r="AB39">
+        <v>0</v>
       </c>
       <c r="AC39" t="e">
         <v>#N/A</v>
@@ -1683,7 +4691,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
         <v>47</v>
       </c>
@@ -1711,26 +4719,26 @@
       <c r="S40">
         <v>1</v>
       </c>
-      <c r="V40">
-        <v>0</v>
+      <c r="V40" t="str">
+        <v>num</v>
       </c>
       <c r="W40" t="str">
         <v>h,m</v>
       </c>
       <c r="X40" t="str">
+        <v>hvert,m</v>
+      </c>
+      <c r="Y40" t="str">
         <v>p,atma</v>
       </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="e">
-        <v>#N/A</v>
+      <c r="Z40" t="str">
+        <v>t,C</v>
+      </c>
+      <c r="AA40" t="str">
+        <v>Hl</v>
+      </c>
+      <c r="AB40" t="str">
+        <v>fpat</v>
       </c>
       <c r="AC40" t="e">
         <v>#N/A</v>
@@ -1745,7 +4753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="2:32" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:32" ht="18" x14ac:dyDescent="0.35">
       <c r="B41" s="18" t="s">
         <v>51</v>
       </c>
@@ -1784,25 +4792,25 @@
         <v>1</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="21">
         <v>0</v>
       </c>
       <c r="X41" s="21">
-        <v>90</v>
-      </c>
-      <c r="Y41">
         <v>0</v>
       </c>
-      <c r="Z41">
-        <v>0</v>
+      <c r="Y41" s="21">
+        <v>17.470479080452858</v>
+      </c>
+      <c r="Z41" s="21">
+        <v>20</v>
       </c>
       <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="e">
-        <v>#N/A</v>
+        <v>0.31699488013866833</v>
+      </c>
+      <c r="AB41">
+        <v>3</v>
       </c>
       <c r="AC41" t="e">
         <v>#N/A</v>
@@ -1817,7 +4825,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>28</v>
       </c>
@@ -1845,40 +4853,40 @@
       </c>
       <c r="P42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,P40,P41,PVTstr_)</f>
-        <v>26.151340003359742</v>
+        <v>35.57661612880662</v>
       </c>
       <c r="Q42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,Q40,Q41,PVTstr_)</f>
-        <v>31.492794777013103</v>
+        <v>58.441142564550525</v>
       </c>
       <c r="R42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,R40,R41,PVTstr_)</f>
-        <v>172.73477873072741</v>
+        <v>163.77300478484753</v>
       </c>
       <c r="S42">
         <f>[1]!MF_p_pipe_new_atma(qliq_,fw_,$B$43:$C$44,Pcalc_,,S40,S41,PVTstr_)</f>
-        <v>172.52763899777364</v>
+        <v>132.2009239939141</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W42" s="21">
-        <v>52.631578947368418</v>
+        <v>73.684210526315795</v>
       </c>
       <c r="X42" s="21">
-        <v>94.397313308580337</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
+        <v>73.684210526315795</v>
+      </c>
+      <c r="Y42" s="21">
+        <v>19.652431927016032</v>
+      </c>
+      <c r="Z42" s="21">
+        <v>20.736842105263158</v>
       </c>
       <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="e">
-        <v>#N/A</v>
+        <v>0.34198697794936717</v>
+      </c>
+      <c r="AB42">
+        <v>3</v>
       </c>
       <c r="AC42" t="e">
         <v>#N/A</v>
@@ -1893,7 +4901,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B43" s="17">
         <v>0</v>
       </c>
@@ -1904,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="19">
@@ -1920,25 +4928,25 @@
         <v>72</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W43" s="21">
-        <v>105.26315789473684</v>
+        <v>147.36842105263159</v>
       </c>
       <c r="X43" s="21">
-        <v>98.795690369059372</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
+        <v>147.36842105263159</v>
+      </c>
+      <c r="Y43" s="21">
+        <v>21.972943977065555</v>
+      </c>
+      <c r="Z43" s="21">
+        <v>21.473684210526315</v>
       </c>
       <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="e">
-        <v>#N/A</v>
+        <v>0.367442328007691</v>
+      </c>
+      <c r="AB43">
+        <v>3</v>
       </c>
       <c r="AC43" t="e">
         <v>#N/A</v>
@@ -1953,7 +4961,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B44" s="17">
         <v>1000</v>
       </c>
@@ -1980,25 +4988,25 @@
         <v>60</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W44" s="21">
-        <v>157.89473684210526</v>
+        <v>221.0526315789474</v>
       </c>
       <c r="X44" s="21">
-        <v>103.20364119662682</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
+        <v>221.0526315789474</v>
+      </c>
+      <c r="Y44" s="21">
+        <v>24.433424866048782</v>
+      </c>
+      <c r="Z44" s="21">
+        <v>22.210526315789473</v>
       </c>
       <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="e">
-        <v>#N/A</v>
+        <v>0.39334523076872968</v>
+      </c>
+      <c r="AB44">
+        <v>3</v>
       </c>
       <c r="AC44" t="e">
         <v>#N/A</v>
@@ -2013,7 +5021,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B45" s="17">
         <v>1100</v>
       </c>
@@ -2040,25 +5048,25 @@
         <v>60</v>
       </c>
       <c r="V45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W45" s="21">
-        <v>210.52631578947367</v>
+        <v>294.73684210526318</v>
       </c>
       <c r="X45" s="21">
-        <v>107.61223871088814</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
+        <v>294.73684210526318</v>
+      </c>
+      <c r="Y45" s="21">
+        <v>27.051384514190794</v>
+      </c>
+      <c r="Z45" s="21">
+        <v>22.94736842105263</v>
       </c>
       <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="e">
-        <v>#N/A</v>
+        <v>0.41972360938707642</v>
+      </c>
+      <c r="AB45">
+        <v>3</v>
       </c>
       <c r="AC45" t="e">
         <v>#N/A</v>
@@ -2073,7 +5081,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B46" s="17">
         <v>1200</v>
       </c>
@@ -2088,25 +5096,25 @@
       <c r="J46" s="19"/>
       <c r="K46" s="19"/>
       <c r="V46">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W46" s="21">
-        <v>263.15789473684208</v>
+        <v>368.42105263157896</v>
       </c>
       <c r="X46" s="21">
-        <v>112.023422971925</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
+        <v>368.42105263157896</v>
+      </c>
+      <c r="Y46" s="21">
+        <v>29.877605897499265</v>
+      </c>
+      <c r="Z46" s="21">
+        <v>23.684210526315791</v>
       </c>
       <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="e">
-        <v>#N/A</v>
+        <v>0.44665556111797178</v>
+      </c>
+      <c r="AB46">
+        <v>3</v>
       </c>
       <c r="AC46" t="e">
         <v>#N/A</v>
@@ -2121,7 +5129,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B47" s="17">
         <v>1300</v>
       </c>
@@ -2136,25 +5144,25 @@
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
       <c r="V47">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W47" s="21">
-        <v>315.78947368421052</v>
+        <v>442.1052631578948</v>
       </c>
       <c r="X47" s="21">
-        <v>116.43542755192603</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
+        <v>442.1052631578948</v>
+      </c>
+      <c r="Y47" s="21">
+        <v>32.849479945575233</v>
+      </c>
+      <c r="Z47" s="21">
+        <v>24.421052631578949</v>
       </c>
       <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="e">
-        <v>#N/A</v>
+        <v>0.47392365618931126</v>
+      </c>
+      <c r="AB47">
+        <v>3</v>
       </c>
       <c r="AC47" t="e">
         <v>#N/A</v>
@@ -2169,7 +5177,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B48" s="17">
         <v>1400</v>
       </c>
@@ -2184,25 +5192,25 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
       <c r="V48">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W48" s="21">
-        <v>368.4210526315789</v>
+        <v>515.78947368421052</v>
       </c>
       <c r="X48" s="21">
-        <v>120.8493462095101</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
+        <v>515.78947368421052</v>
+      </c>
+      <c r="Y48" s="21">
+        <v>35.967456183675345</v>
+      </c>
+      <c r="Z48" s="21">
+        <v>25.157894736842106</v>
       </c>
       <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="e">
-        <v>#N/A</v>
+        <v>0.50150189833909964</v>
+      </c>
+      <c r="AB48">
+        <v>3</v>
       </c>
       <c r="AC48" t="e">
         <v>#N/A</v>
@@ -2217,7 +5225,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B49" s="17">
         <v>1500</v>
       </c>
@@ -2232,25 +5240,25 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
       <c r="V49">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W49" s="21">
-        <v>421.05263157894734</v>
+        <v>589.47368421052636</v>
       </c>
       <c r="X49" s="21">
-        <v>125.26419853456824</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
+        <v>589.47368421052636</v>
+      </c>
+      <c r="Y49" s="21">
+        <v>39.264650990807866</v>
+      </c>
+      <c r="Z49" s="21">
+        <v>25.894736842105264</v>
       </c>
       <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="e">
-        <v>#N/A</v>
+        <v>0.52941005426155718</v>
+      </c>
+      <c r="AB49">
+        <v>3</v>
       </c>
       <c r="AC49" t="e">
         <v>#N/A</v>
@@ -2265,7 +5273,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B50" s="17">
         <v>1600</v>
       </c>
@@ -2280,25 +5288,25 @@
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
       <c r="V50">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W50" s="21">
-        <v>473.68421052631578</v>
+        <v>663.1578947368422</v>
       </c>
       <c r="X50" s="21">
-        <v>129.68045136083745</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
+        <v>663.1578947368422</v>
+      </c>
+      <c r="Y50" s="21">
+        <v>42.757208209462341</v>
+      </c>
+      <c r="Z50" s="21">
+        <v>26.631578947368421</v>
       </c>
       <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="e">
-        <v>#N/A</v>
+        <v>0.55758946892312722</v>
+      </c>
+      <c r="AB50">
+        <v>3</v>
       </c>
       <c r="AC50" t="e">
         <v>#N/A</v>
@@ -2313,7 +5321,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B51" s="17">
         <v>1700</v>
       </c>
@@ -2328,25 +5336,25 @@
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
       <c r="V51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W51" s="21">
-        <v>526.31578947368416</v>
+        <v>736.84210526315792</v>
       </c>
       <c r="X51" s="21">
-        <v>134.09770852921889</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
+        <v>736.84210526315792</v>
+      </c>
+      <c r="Y51" s="21">
+        <v>46.395470042468439</v>
+      </c>
+      <c r="Z51" s="21">
+        <v>27.368421052631579</v>
       </c>
       <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="e">
-        <v>#N/A</v>
+        <v>0.58591701340704472</v>
+      </c>
+      <c r="AB51">
+        <v>3</v>
       </c>
       <c r="AC51" t="e">
         <v>#N/A</v>
@@ -2361,7 +5369,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B52" s="17">
         <v>1800</v>
       </c>
@@ -2376,25 +5384,25 @@
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
       <c r="V52">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W52" s="21">
-        <v>578.9473684210526</v>
+        <v>810.52631578947376</v>
       </c>
       <c r="X52" s="21">
-        <v>138.51597003971253</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
+        <v>810.52631578947376</v>
+      </c>
+      <c r="Y52" s="21">
+        <v>50.178759190884584</v>
+      </c>
+      <c r="Z52" s="21">
+        <v>28.105263157894736</v>
       </c>
       <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="e">
-        <v>#N/A</v>
+        <v>0.61436046371992692</v>
+      </c>
+      <c r="AB52">
+        <v>3</v>
       </c>
       <c r="AC52" t="e">
         <v>#N/A</v>
@@ -2409,7 +5417,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B53" s="17">
         <v>1900</v>
       </c>
@@ -2424,25 +5432,25 @@
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="V53">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W53" s="21">
-        <v>631.57894736842104</v>
+        <v>884.21052631578959</v>
       </c>
       <c r="X53" s="21">
-        <v>142.93527601530565</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
+        <v>884.21052631578959</v>
+      </c>
+      <c r="Y53" s="21">
+        <v>54.153346957173213</v>
+      </c>
+      <c r="Z53" s="21">
+        <v>28.842105263157897</v>
       </c>
       <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="e">
-        <v>#N/A</v>
+        <v>0.64288182881162492</v>
+      </c>
+      <c r="AB53">
+        <v>3</v>
       </c>
       <c r="AC53" t="e">
         <v>#N/A</v>
@@ -2457,7 +5465,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B54" s="17">
         <v>2000</v>
       </c>
@@ -2472,25 +5480,25 @@
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
       <c r="V54">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W54" s="21">
-        <v>684.21052631578948</v>
+        <v>957.89473684210532</v>
       </c>
       <c r="X54" s="21">
-        <v>147.35527830096504</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
+        <v>957.89473684210532</v>
+      </c>
+      <c r="Y54" s="21">
+        <v>58.886518976992328</v>
+      </c>
+      <c r="Z54" s="21">
+        <v>29.578947368421055</v>
       </c>
       <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="e">
-        <v>#N/A</v>
+        <v>0.79646608695521881</v>
+      </c>
+      <c r="AB54">
+        <v>3</v>
       </c>
       <c r="AC54" t="e">
         <v>#N/A</v>
@@ -2505,7 +5513,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B55" s="17">
         <v>2100</v>
       </c>
@@ -2520,25 +5528,25 @@
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
       <c r="V55">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W55" s="21">
-        <v>736.8421052631578</v>
+        <v>1031.578947368421</v>
       </c>
       <c r="X55" s="21">
-        <v>151.7763431371865</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
+        <v>1030.3157894736842</v>
+      </c>
+      <c r="Y55" s="21">
+        <v>63.973453846688841</v>
+      </c>
+      <c r="Z55" s="21">
+        <v>30.303157894736842</v>
       </c>
       <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="e">
-        <v>#N/A</v>
+        <v>0.90785712985273526</v>
+      </c>
+      <c r="AB55">
+        <v>3</v>
       </c>
       <c r="AC55" t="e">
         <v>#N/A</v>
@@ -2553,7 +5561,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B56" s="17">
         <v>2200</v>
       </c>
@@ -2568,25 +5576,25 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
       <c r="V56">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W56" s="21">
-        <v>789.47368421052624</v>
+        <v>1105.2631578947369</v>
       </c>
       <c r="X56" s="21">
-        <v>156.19786335222025</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
+        <v>1101</v>
+      </c>
+      <c r="Y56" s="21">
+        <v>69.25379448799147</v>
+      </c>
+      <c r="Z56" s="21">
+        <v>31.01</v>
       </c>
       <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="e">
-        <v>#N/A</v>
+        <v>0.9175324624126453</v>
+      </c>
+      <c r="AB56">
+        <v>3</v>
       </c>
       <c r="AC56" t="e">
         <v>#N/A</v>
@@ -2601,7 +5609,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B57" s="17">
         <v>2300</v>
       </c>
@@ -2616,25 +5624,25 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
       <c r="V57">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W57" s="21">
-        <v>842.10526315789468</v>
+        <v>1178.9473684210527</v>
       </c>
       <c r="X57" s="21">
-        <v>160.62044825094014</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
+        <v>1171</v>
+      </c>
+      <c r="Y57" s="21">
+        <v>74.502555415351864</v>
+      </c>
+      <c r="Z57" s="21">
+        <v>31.71</v>
       </c>
       <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="e">
-        <v>#N/A</v>
+        <v>0.92745902836705951</v>
+      </c>
+      <c r="AB57">
+        <v>3</v>
       </c>
       <c r="AC57" t="e">
         <v>#N/A</v>
@@ -2649,7 +5657,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B58" s="17">
         <v>2400</v>
       </c>
@@ -2664,25 +5672,25 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="V58">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="W58" s="21">
-        <v>894.73684210526312</v>
+        <v>1252.6315789473686</v>
       </c>
       <c r="X58" s="21">
-        <v>165.04329932058155</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
+        <v>1239.9473684210527</v>
+      </c>
+      <c r="Y58" s="21">
+        <v>79.699540366721266</v>
+      </c>
+      <c r="Z58" s="21">
+        <v>32.399473684210527</v>
       </c>
       <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="e">
-        <v>#N/A</v>
+        <v>0.9361113833320186</v>
+      </c>
+      <c r="AB58">
+        <v>3</v>
       </c>
       <c r="AC58" t="e">
         <v>#N/A</v>
@@ -2697,7 +5705,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B59" s="17">
         <v>2500</v>
       </c>
@@ -2712,25 +5720,25 @@
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
       <c r="V59">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="W59" s="21">
-        <v>947.36842105263156</v>
+        <v>1326.3157894736844</v>
       </c>
       <c r="X59" s="21">
-        <v>169.4672056705202</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
+        <v>1307.9473684210527</v>
+      </c>
+      <c r="Y59" s="21">
+        <v>84.862107167518673</v>
+      </c>
+      <c r="Z59" s="21">
+        <v>33.079473684210534</v>
       </c>
       <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="e">
-        <v>#N/A</v>
+        <v>0.94293025637843442</v>
+      </c>
+      <c r="AB59">
+        <v>3</v>
       </c>
       <c r="AC59" t="e">
         <v>#N/A</v>
@@ -2745,7 +5753,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B60" s="17">
         <v>2600</v>
       </c>
@@ -2760,25 +5768,25 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
       <c r="V60">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W60" s="21">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="X60" s="21">
-        <v>173.89122927382525</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
+        <v>1375</v>
+      </c>
+      <c r="Y60" s="21">
+        <v>90</v>
+      </c>
+      <c r="Z60" s="21">
+        <v>33.75</v>
       </c>
       <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="e">
-        <v>#N/A</v>
+        <v>0.94736629388388027</v>
+      </c>
+      <c r="AB60">
+        <v>3</v>
       </c>
       <c r="AC60" t="e">
         <v>#N/A</v>
@@ -2793,7 +5801,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B61" s="17">
         <v>2700</v>
       </c>
@@ -2841,7 +5849,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B62" s="17">
         <v>2800</v>
       </c>
@@ -2889,7 +5897,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B63" s="17">
         <v>3500</v>
       </c>
@@ -2931,7 +5939,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="G64" s="10"/>
@@ -2969,7 +5977,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="G65" s="10"/>
@@ -3007,7 +6015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
       <c r="V66" t="e">
         <v>#N/A</v>
       </c>
@@ -3042,7 +6050,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
       <c r="V67" t="e">
         <v>#N/A</v>
       </c>
@@ -3077,7 +6085,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
       <c r="V68" t="e">
         <v>#N/A</v>
       </c>
@@ -3114,6 +6122,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/exercises/excercises/ex050.MF_pipe_new.xlsx
+++ b/exercises/excercises/ex050.MF_pipe_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1193CAA-869F-4B48-8003-B898D784072C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A57E85-DC9D-4CB2-8E86-8DC15C9BA279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CBB18379-7E76-40C7-BC74-A5CF898F6A9B}"/>
   </bookViews>
@@ -1006,61 +1006,61 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>17.470479080452858</c:v>
+                  <c:v>17.632808919549035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.652431927016032</c:v>
+                  <c:v>19.817135009555987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.972943977065555</c:v>
+                  <c:v>22.139084729658084</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.433424866048782</c:v>
+                  <c:v>24.600034638943608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.051384514190794</c:v>
+                  <c:v>27.2173410905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.877605897499265</c:v>
+                  <c:v>30.041364579530949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.849479945575233</c:v>
+                  <c:v>33.009933129264013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.967456183675345</c:v>
+                  <c:v>36.123482606838401</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.264650990807866</c:v>
+                  <c:v>39.414858506981318</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.757208209462341</c:v>
+                  <c:v>42.900059756512633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.395470042468439</c:v>
+                  <c:v>46.529803153616584</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.178759190884584</c:v>
+                  <c:v>50.303398708095813</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>54.153346957173213</c:v>
+                  <c:v>54.266679670779155</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58.886518976992328</c:v>
+                  <c:v>58.988691866288988</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63.973453846688841</c:v>
+                  <c:v>64.065311468489838</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69.25379448799147</c:v>
+                  <c:v>69.336281991919961</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74.502555415351864</c:v>
+                  <c:v>74.574015572957052</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.699540366721266</c:v>
+                  <c:v>79.755921742187581</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84.862107167518673</c:v>
+                  <c:v>84.895741117431442</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>90</c:v>
@@ -1396,64 +1396,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21.504551809806248</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.736842105263158</c:v>
+                  <c:v>22.243982806275294</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.473684210526315</c:v>
+                  <c:v>22.982533619631564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.210526315789473</c:v>
+                  <c:v>23.720193522389931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.94736842105263</c:v>
+                  <c:v>24.456848625199061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.684210526315791</c:v>
+                  <c:v>25.192247361436301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.421052631578949</c:v>
+                  <c:v>25.926892064198316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.157894736842106</c:v>
+                  <c:v>26.660901182639282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.894736842105264</c:v>
+                  <c:v>27.394387647441519</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.631578947368421</c:v>
+                  <c:v>28.128270849853966</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.368421052631579</c:v>
+                  <c:v>28.863854423848689</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.105263157894736</c:v>
+                  <c:v>29.602614036332209</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28.842105263157897</c:v>
+                  <c:v>30.350624387865071</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.578947368421055</c:v>
+                  <c:v>31.108340507211327</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.303157894736842</c:v>
+                  <c:v>31.908883297360468</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.01</c:v>
+                  <c:v>32.785766088091044</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.71</c:v>
+                  <c:v>33.958621737278314</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.399473684210527</c:v>
+                  <c:v>35.819731046532453</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.079473684210534</c:v>
+                  <c:v>38.984417453209602</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.75</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,64 +1785,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.31699488013866833</c:v>
+                  <c:v>0.31781214365257437</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34198697794936717</c:v>
+                  <c:v>0.34266324527328501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.367442328007691</c:v>
+                  <c:v>0.36796994668856231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39334523076872968</c:v>
+                  <c:v>0.39371672761542237</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41972360938707642</c:v>
+                  <c:v>0.41993092982878527</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44665556111797178</c:v>
+                  <c:v>0.44668919279880809</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47392365618931126</c:v>
+                  <c:v>0.47377772319985634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50150189833909964</c:v>
+                  <c:v>0.50117085226574887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52941005426155718</c:v>
+                  <c:v>0.52888769744286512</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55758946892312722</c:v>
+                  <c:v>0.55686923981617598</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58591701340704472</c:v>
+                  <c:v>0.58499268084762002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61436046371992692</c:v>
+                  <c:v>0.61322383130405644</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64288182881162492</c:v>
+                  <c:v>0.64151454355784154</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79646608695521881</c:v>
+                  <c:v>0.79544791510646329</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90785712985273526</c:v>
+                  <c:v>0.90709439935437863</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9175324624126453</c:v>
+                  <c:v>0.91667801430037621</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92745902836705951</c:v>
+                  <c:v>0.92636415820018136</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9361113833320186</c:v>
+                  <c:v>0.93444042342744571</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94293025637843442</c:v>
+                  <c:v>0.94009143990044941</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94736629388388027</c:v>
+                  <c:v>0.94253612126001329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3906,6 +3906,7 @@
       <definedName name="getUFVersion"/>
       <definedName name="MF_p_pipe_new_atma"/>
       <definedName name="PVT_encode_string"/>
+      <definedName name="well_plin_pwf_new_atma"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4215,8 +4216,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4517,7 +4518,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="s">
         <v>59</v>
@@ -4622,10 +4623,10 @@
       </c>
       <c r="V38" s="21">
         <f t="array" ref="V38:AF68">[1]!MF_p_pipe_new_atma(qliq_,fw_,B43:C48,Pcalc_,C25,P33,P34,PVTstr_,,hcor,E43:F45,tempm)</f>
-        <v>17.470479080452858</v>
+        <v>17.632808919549035</v>
       </c>
       <c r="W38" s="21">
-        <v>20</v>
+        <v>21.504551809806248</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -4801,13 +4802,13 @@
         <v>0</v>
       </c>
       <c r="Y41" s="21">
-        <v>17.470479080452858</v>
+        <v>17.632808919549035</v>
       </c>
       <c r="Z41" s="21">
-        <v>20</v>
+        <v>21.504551809806248</v>
       </c>
       <c r="AA41">
-        <v>0.31699488013866833</v>
+        <v>0.31781214365257437</v>
       </c>
       <c r="AB41">
         <v>3</v>
@@ -4877,13 +4878,13 @@
         <v>73.684210526315795</v>
       </c>
       <c r="Y42" s="21">
-        <v>19.652431927016032</v>
+        <v>19.817135009555987</v>
       </c>
       <c r="Z42" s="21">
-        <v>20.736842105263158</v>
+        <v>22.243982806275294</v>
       </c>
       <c r="AA42">
-        <v>0.34198697794936717</v>
+        <v>0.34266324527328501</v>
       </c>
       <c r="AB42">
         <v>3</v>
@@ -4937,13 +4938,13 @@
         <v>147.36842105263159</v>
       </c>
       <c r="Y43" s="21">
-        <v>21.972943977065555</v>
+        <v>22.139084729658084</v>
       </c>
       <c r="Z43" s="21">
-        <v>21.473684210526315</v>
+        <v>22.982533619631564</v>
       </c>
       <c r="AA43">
-        <v>0.367442328007691</v>
+        <v>0.36796994668856231</v>
       </c>
       <c r="AB43">
         <v>3</v>
@@ -4997,13 +4998,13 @@
         <v>221.0526315789474</v>
       </c>
       <c r="Y44" s="21">
-        <v>24.433424866048782</v>
+        <v>24.600034638943608</v>
       </c>
       <c r="Z44" s="21">
-        <v>22.210526315789473</v>
+        <v>23.720193522389931</v>
       </c>
       <c r="AA44">
-        <v>0.39334523076872968</v>
+        <v>0.39371672761542237</v>
       </c>
       <c r="AB44">
         <v>3</v>
@@ -5057,13 +5058,13 @@
         <v>294.73684210526318</v>
       </c>
       <c r="Y45" s="21">
-        <v>27.051384514190794</v>
+        <v>27.2173410905</v>
       </c>
       <c r="Z45" s="21">
-        <v>22.94736842105263</v>
+        <v>24.456848625199061</v>
       </c>
       <c r="AA45">
-        <v>0.41972360938707642</v>
+        <v>0.41993092982878527</v>
       </c>
       <c r="AB45">
         <v>3</v>
@@ -5105,13 +5106,13 @@
         <v>368.42105263157896</v>
       </c>
       <c r="Y46" s="21">
-        <v>29.877605897499265</v>
+        <v>30.041364579530949</v>
       </c>
       <c r="Z46" s="21">
-        <v>23.684210526315791</v>
+        <v>25.192247361436301</v>
       </c>
       <c r="AA46">
-        <v>0.44665556111797178</v>
+        <v>0.44668919279880809</v>
       </c>
       <c r="AB46">
         <v>3</v>
@@ -5153,13 +5154,13 @@
         <v>442.1052631578948</v>
       </c>
       <c r="Y47" s="21">
-        <v>32.849479945575233</v>
+        <v>33.009933129264013</v>
       </c>
       <c r="Z47" s="21">
-        <v>24.421052631578949</v>
+        <v>25.926892064198316</v>
       </c>
       <c r="AA47">
-        <v>0.47392365618931126</v>
+        <v>0.47377772319985634</v>
       </c>
       <c r="AB47">
         <v>3</v>
@@ -5191,6 +5192,10 @@
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
+      <c r="N48">
+        <f>[1]!well_plin_pwf_new_atma(qliq_,fw_,C24,B43:C63,C33,,PVTstr_,J43:K45,H43:I45,,,E43:F45)</f>
+        <v>-1</v>
+      </c>
       <c r="V48">
         <v>8</v>
       </c>
@@ -5201,13 +5206,13 @@
         <v>515.78947368421052</v>
       </c>
       <c r="Y48" s="21">
-        <v>35.967456183675345</v>
+        <v>36.123482606838401</v>
       </c>
       <c r="Z48" s="21">
-        <v>25.157894736842106</v>
+        <v>26.660901182639282</v>
       </c>
       <c r="AA48">
-        <v>0.50150189833909964</v>
+        <v>0.50117085226574887</v>
       </c>
       <c r="AB48">
         <v>3</v>
@@ -5249,13 +5254,13 @@
         <v>589.47368421052636</v>
       </c>
       <c r="Y49" s="21">
-        <v>39.264650990807866</v>
+        <v>39.414858506981318</v>
       </c>
       <c r="Z49" s="21">
-        <v>25.894736842105264</v>
+        <v>27.394387647441519</v>
       </c>
       <c r="AA49">
-        <v>0.52941005426155718</v>
+        <v>0.52888769744286512</v>
       </c>
       <c r="AB49">
         <v>3</v>
@@ -5297,13 +5302,13 @@
         <v>663.1578947368422</v>
       </c>
       <c r="Y50" s="21">
-        <v>42.757208209462341</v>
+        <v>42.900059756512633</v>
       </c>
       <c r="Z50" s="21">
-        <v>26.631578947368421</v>
+        <v>28.128270849853966</v>
       </c>
       <c r="AA50">
-        <v>0.55758946892312722</v>
+        <v>0.55686923981617598</v>
       </c>
       <c r="AB50">
         <v>3</v>
@@ -5345,13 +5350,13 @@
         <v>736.84210526315792</v>
       </c>
       <c r="Y51" s="21">
-        <v>46.395470042468439</v>
+        <v>46.529803153616584</v>
       </c>
       <c r="Z51" s="21">
-        <v>27.368421052631579</v>
+        <v>28.863854423848689</v>
       </c>
       <c r="AA51">
-        <v>0.58591701340704472</v>
+        <v>0.58499268084762002</v>
       </c>
       <c r="AB51">
         <v>3</v>
@@ -5393,13 +5398,13 @@
         <v>810.52631578947376</v>
       </c>
       <c r="Y52" s="21">
-        <v>50.178759190884584</v>
+        <v>50.303398708095813</v>
       </c>
       <c r="Z52" s="21">
-        <v>28.105263157894736</v>
+        <v>29.602614036332209</v>
       </c>
       <c r="AA52">
-        <v>0.61436046371992692</v>
+        <v>0.61322383130405644</v>
       </c>
       <c r="AB52">
         <v>3</v>
@@ -5441,13 +5446,13 @@
         <v>884.21052631578959</v>
       </c>
       <c r="Y53" s="21">
-        <v>54.153346957173213</v>
+        <v>54.266679670779155</v>
       </c>
       <c r="Z53" s="21">
-        <v>28.842105263157897</v>
+        <v>30.350624387865071</v>
       </c>
       <c r="AA53">
-        <v>0.64288182881162492</v>
+        <v>0.64151454355784154</v>
       </c>
       <c r="AB53">
         <v>3</v>
@@ -5489,13 +5494,13 @@
         <v>957.89473684210532</v>
       </c>
       <c r="Y54" s="21">
-        <v>58.886518976992328</v>
+        <v>58.988691866288988</v>
       </c>
       <c r="Z54" s="21">
-        <v>29.578947368421055</v>
+        <v>31.108340507211327</v>
       </c>
       <c r="AA54">
-        <v>0.79646608695521881</v>
+        <v>0.79544791510646329</v>
       </c>
       <c r="AB54">
         <v>3</v>
@@ -5537,13 +5542,13 @@
         <v>1030.3157894736842</v>
       </c>
       <c r="Y55" s="21">
-        <v>63.973453846688841</v>
+        <v>64.065311468489838</v>
       </c>
       <c r="Z55" s="21">
-        <v>30.303157894736842</v>
+        <v>31.908883297360468</v>
       </c>
       <c r="AA55">
-        <v>0.90785712985273526</v>
+        <v>0.90709439935437863</v>
       </c>
       <c r="AB55">
         <v>3</v>
@@ -5585,13 +5590,13 @@
         <v>1101</v>
       </c>
       <c r="Y56" s="21">
-        <v>69.25379448799147</v>
+        <v>69.336281991919961</v>
       </c>
       <c r="Z56" s="21">
-        <v>31.01</v>
+        <v>32.785766088091044</v>
       </c>
       <c r="AA56">
-        <v>0.9175324624126453</v>
+        <v>0.91667801430037621</v>
       </c>
       <c r="AB56">
         <v>3</v>
@@ -5633,13 +5638,13 @@
         <v>1171</v>
       </c>
       <c r="Y57" s="21">
-        <v>74.502555415351864</v>
+        <v>74.574015572957052</v>
       </c>
       <c r="Z57" s="21">
-        <v>31.71</v>
+        <v>33.958621737278314</v>
       </c>
       <c r="AA57">
-        <v>0.92745902836705951</v>
+        <v>0.92636415820018136</v>
       </c>
       <c r="AB57">
         <v>3</v>
@@ -5681,13 +5686,13 @@
         <v>1239.9473684210527</v>
       </c>
       <c r="Y58" s="21">
-        <v>79.699540366721266</v>
+        <v>79.755921742187581</v>
       </c>
       <c r="Z58" s="21">
-        <v>32.399473684210527</v>
+        <v>35.819731046532453</v>
       </c>
       <c r="AA58">
-        <v>0.9361113833320186</v>
+        <v>0.93444042342744571</v>
       </c>
       <c r="AB58">
         <v>3</v>
@@ -5729,13 +5734,13 @@
         <v>1307.9473684210527</v>
       </c>
       <c r="Y59" s="21">
-        <v>84.862107167518673</v>
+        <v>84.895741117431442</v>
       </c>
       <c r="Z59" s="21">
-        <v>33.079473684210534</v>
+        <v>38.984417453209602</v>
       </c>
       <c r="AA59">
-        <v>0.94293025637843442</v>
+        <v>0.94009143990044941</v>
       </c>
       <c r="AB59">
         <v>3</v>
@@ -5780,10 +5785,10 @@
         <v>90</v>
       </c>
       <c r="Z60" s="21">
-        <v>33.75</v>
+        <v>44</v>
       </c>
       <c r="AA60">
-        <v>0.94736629388388027</v>
+        <v>0.94253612126001329</v>
       </c>
       <c r="AB60">
         <v>3</v>
